--- a/data/trans_camb/P18_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_5_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,51</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,44</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,01</t>
+          <t>-16,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,31</t>
+          <t>-19,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-17,08</t>
+          <t>-18,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,52</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,43</t>
+          <t>-11,92</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-16,32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-12,81</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-12,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 4,61</t>
+          <t>-24,05; 12,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -6,58</t>
+          <t>-28,86; 4,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 0,12</t>
+          <t>-23,52; 11,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -13,23</t>
+          <t>-29,06; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,27; -7,97</t>
+          <t>-33,13; -1,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -7,31</t>
+          <t>-35,63; -5,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,99; -7,96</t>
+          <t>-34,08; -3,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,6; -10,34</t>
+          <t>-26,73; 9,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -7,94</t>
+          <t>-23,17; -0,29</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; -6,37</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-24,25; -1,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-23,38; 0,59</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-43,03%</t>
+          <t>-33,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-87,43%</t>
+          <t>-74,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-58,94%</t>
+          <t>-36,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-80,05%</t>
+          <t>-75,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-66,13%</t>
+          <t>-65,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,06%</t>
+          <t>-74,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-68,55%</t>
+          <t>-70,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-74,34%</t>
+          <t>-40,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-65,95%</t>
+          <t>-54,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-75,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-58,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-55,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 63,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -24,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,62; 24,94</t>
+          <t>-100,0; 216,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-92,87; -48,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,15; -30,53</t>
+          <t>-91,82; 9,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,76; -22,96</t>
+          <t>-100,0; -20,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,81; -37,13</t>
+          <t>-93,63; 16,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,0; -46,8</t>
+          <t>-80,72; 69,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,69; -37,05</t>
+          <t>-82,45; 8,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-93,9; -33,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-85,19; 7,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-83,01; 15,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,95</t>
+          <t>-21,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,97</t>
+          <t>-22,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-24,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,9</t>
+          <t>-17,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,44</t>
+          <t>-14,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,06</t>
+          <t>-15,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-14,79</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-19,5</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-12,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-19,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 19,52</t>
+          <t>-35,29; 31,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,5; -4,35</t>
+          <t>-51,92; -3,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 11,23</t>
+          <t>-37,07; 21,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,15; -9,43</t>
+          <t>-53,49; -5,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -3,38</t>
+          <t>-37,36; -13,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,14; -1,77</t>
+          <t>-30,46; -3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 1,5</t>
+          <t>-28,48; 0,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,75; -7,71</t>
+          <t>-29,88; -1,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 0,74</t>
+          <t>-29,76; 5,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-34,64; -8,51</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-27,85; 7,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-34,37; -8,38</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,24%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-74,7%</t>
+          <t>-74,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,66%</t>
+          <t>-37,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-79,58%</t>
+          <t>-77,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-58,27%</t>
+          <t>-93,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,72%</t>
+          <t>-66,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-50,54%</t>
+          <t>-54,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-66,57%</t>
+          <t>-61,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,58%</t>
+          <t>-53,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-71,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-44,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-71,12%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 139,5</t>
+          <t>-89,39; 201,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-94,7; -31,9</t>
+          <t>-96,97; -11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,19; 138,72</t>
+          <t>-91,79; 211,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-94,88; -47,13</t>
+          <t>-97,09; -17,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,67; -13,81</t>
+          <t>-100,0; -59,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,26; -7,66</t>
+          <t>-88,19; -6,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,72; 20,74</t>
+          <t>-83,74; 8,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -40,91</t>
+          <t>-87,16; 0,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,14; 16,8</t>
+          <t>-89,07; 43,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-90,21; -41,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-78,36; 59,21</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-90,24; -36,15</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-24,99</t>
+          <t>-20,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-19,38</t>
+          <t>-19,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-24,54</t>
+          <t>-20,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,46</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>-16,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,83</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-20,45</t>
+          <t>-14,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-14,29</t>
+          <t>-16,96</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-18,9</t>
+          <t>-17,97</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-14,13</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-16,91</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-11,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-35,76; -14,39</t>
+          <t>-35,22; -8,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -4,55</t>
+          <t>-35,33; -6,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,61; -13,76</t>
+          <t>-34,17; -6,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,26; -7,79</t>
+          <t>-21,92; 12,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -0,46</t>
+          <t>-28,23; -6,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -5,01</t>
+          <t>-23,21; 0,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,08; -13,23</t>
+          <t>-25,63; -3,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,62; -6,04</t>
+          <t>-28,11; -6,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,74; -11,83</t>
+          <t>-26,6; -9,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-24,67; -5,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-25,68; -8,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; -2,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-78,19%</t>
+          <t>-71,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,64%</t>
+          <t>-68,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-76,77%</t>
+          <t>-70,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-64,26%</t>
+          <t>-15,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,43%</t>
+          <t>-60,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,99%</t>
+          <t>-39,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-71,59%</t>
+          <t>-54,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-50,03%</t>
+          <t>-62,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-66,19%</t>
+          <t>-65,06%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-51,14%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-61,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-41,57%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,02; -47,27</t>
+          <t>-92,43; -37,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,53; -13,11</t>
+          <t>-89,36; -23,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,7; -51,95</t>
+          <t>-90,12; -28,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,2; -36,98</t>
+          <t>-57,35; 62,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 0,23</t>
+          <t>-81,36; -27,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,46; -22,71</t>
+          <t>-68,16; 8,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-83,47; -53,92</t>
+          <t>-76,16; -14,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,97; -22,05</t>
+          <t>-83,59; -25,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,18; -47,41</t>
+          <t>-80,11; -38,74</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-72,5; -21,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-77,57; -35,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-64,53; -6,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-18,43</t>
+          <t>-20,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,91</t>
+          <t>-13,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,73</t>
+          <t>-13,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-20,43</t>
+          <t>-17,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,68</t>
+          <t>-23,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,79</t>
+          <t>-14,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-19,49</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-12,79</t>
+          <t>-14,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,45</t>
+          <t>-22,27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-13,63</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-14,61</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-16,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -9,5</t>
+          <t>-31,9; -9,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -2,71</t>
+          <t>-25,18; -1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -1,83</t>
+          <t>-25,14; -2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -11,63</t>
+          <t>-29,6; -6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,86; -2,82</t>
+          <t>-36,04; -11,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -2,84</t>
+          <t>-26,36; -0,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-26,19; -13,43</t>
+          <t>-27,83; -1,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,99; -5,91</t>
+          <t>-28,03; -2,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -5,87</t>
+          <t>-30,29; -13,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-22,39; -4,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-23,15; -5,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-25,52; -8,16</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-71,55%</t>
+          <t>-76,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,11%</t>
+          <t>-48,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-45,53%</t>
+          <t>-50,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-55,45%</t>
+          <t>-65,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-34,42%</t>
+          <t>-57,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-34,72%</t>
+          <t>-33,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-61,21%</t>
+          <t>-36,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,17%</t>
+          <t>-35,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-39,1%</t>
+          <t>-63,9%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-39,11%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-41,92%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-47,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,69; -44,3</t>
+          <t>-91,62; -45,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,68; -12,94</t>
+          <t>-74,58; -2,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -7,14</t>
+          <t>-76,67; -9,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,07; -35,91</t>
+          <t>-87,16; -30,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,72; -9,01</t>
+          <t>-73,83; -31,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -8,65</t>
+          <t>-53,82; -1,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,13; -46,75</t>
+          <t>-57,76; -5,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,94; -19,69</t>
+          <t>-58,05; -5,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,35; -20,9</t>
+          <t>-76,2; -44,05</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-56,98; -13,76</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; -17,25</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-64,62; -25,24</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-12,93</t>
+          <t>-11,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-18,7</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-14,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-12,64</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-7,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -5,02</t>
+          <t>-21,53; -0,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 3,56</t>
+          <t>-14,34; 9,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 5,96</t>
+          <t>-14,06; 10,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-28,84; -8,22</t>
+          <t>-18,53; 2,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 5,51</t>
+          <t>-29,27; -0,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 4,65</t>
+          <t>-14,3; 20,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-22,51; -9,48</t>
+          <t>-15,61; 15,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 1,51</t>
+          <t>-23,36; 8,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 1,83</t>
+          <t>-21,93; -4,52</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 9,29</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; 8,22</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-17,29; 1,94</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-69,14%</t>
+          <t>-67,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-32,25%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-65,51%</t>
+          <t>-48,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,37%</t>
+          <t>-59,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-24,37%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-67,16%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-26,43%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>-63,59%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-2,47%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-9,99%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-36,53%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-89,53; -33,71</t>
+          <t>-92,36; -3,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 29,46</t>
+          <t>-67,08; 104,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,98; 45,83</t>
+          <t>-64,44; 103,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-82,57; -32,99</t>
+          <t>-83,38; 38,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 25,08</t>
+          <t>-86,56; 4,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,2; 21,43</t>
+          <t>-47,65; 149,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -45,81</t>
+          <t>-50,56; 110,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 7,9</t>
+          <t>-68,37; 67,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 11,2</t>
+          <t>-84,92; -24,59</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-45,15; 66,3</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-48,42; 56,48</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-67,28; 16,14</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-19,9</t>
+          <t>-16,98</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-14,47</t>
+          <t>-15,2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-29,18</t>
+          <t>-18,99</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-25,24</t>
+          <t>-31,34</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-20,75</t>
+          <t>-23,57</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-24,87</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-18,19</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-17,32</t>
+          <t>-24,77</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-20,17</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-12,42</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-13,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -8,79</t>
+          <t>-34,29; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 3,48</t>
+          <t>-32,9; 0,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-26,46; -2,71</t>
+          <t>-32,1; 2,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-43,64; -14,17</t>
+          <t>-35,59; -3,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -11,36</t>
+          <t>-49,27; -14,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-38,36; -3,98</t>
+          <t>-41,77; -5,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-34,09; -14,56</t>
+          <t>-29,87; 12,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-28,63; -8,58</t>
+          <t>-33,59; 16,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-27,96; -6,24</t>
+          <t>-38,15; -12,1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; -7,42</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-26,5; 2,41</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-28,56; 6,59</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-77,72%</t>
+          <t>-63,87%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-38,04%</t>
+          <t>-61,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-56,54%</t>
+          <t>-57,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-62,77%</t>
+          <t>-71,42%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-54,3%</t>
+          <t>-77,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-44,65%</t>
+          <t>-58,51%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-66,9%</t>
+          <t>-25,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-48,92%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-46,57%</t>
+          <t>-72,87%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-59,32%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-36,54%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-41,08%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-94,39; -35,58</t>
+          <t>-92,49; 29,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 23,94</t>
+          <t>-90,94; 27,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,19; -8,28</t>
+          <t>-88,52; 34,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-80,9; -34,52</t>
+          <t>-93,68; -4,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -29,01</t>
+          <t>-94,88; -46,15</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-71,33; -11,71</t>
+          <t>-81,78; -12,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-80,64; -43,57</t>
+          <t>-61,99; 47,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-67,41; -27,15</t>
+          <t>-69,69; 65,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-68,12; -19,01</t>
+          <t>-88,99; -41,22</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-80,49; -26,67</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-64,65; 9,72</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-73,57; 30,54</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-13,37</t>
+          <t>-11,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-21,07</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-14,39</t>
+          <t>-21,01</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>-13,65</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-18,34</t>
+          <t>-13,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>-17,6</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-14,06</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-12,56</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-13,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -10,3</t>
+          <t>-20,63; -3,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -8,79</t>
+          <t>-21,84; -8,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -8,39</t>
+          <t>-19,74; -2,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -16,86</t>
+          <t>-22,05; -8,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -9,9</t>
+          <t>-26,15; -15,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -9,79</t>
+          <t>-19,84; -7,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -14,72</t>
+          <t>-19,38; -7,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -10,96</t>
+          <t>-19,25; -4,93</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -10,39</t>
+          <t>-22,15; -12,34</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; -9,91</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; -7,18</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; -8,34</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-63,21%</t>
+          <t>-56,18%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-57,65%</t>
+          <t>-58,9%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-55,46%</t>
+          <t>-47,88%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-65,85%</t>
+          <t>-58,43%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-44,98%</t>
+          <t>-67,34%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-45,21%</t>
+          <t>-43,75%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-64,82%</t>
+          <t>-41,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-50,29%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-49,81%</t>
+          <t>-62,82%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-50,17%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-44,84%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-48,84%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-75,05; -43,1</t>
+          <t>-73,82; -5,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -41,7</t>
+          <t>-73,54; -39,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-68,07; -35,53</t>
+          <t>-67,63; -4,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-74,14; -56,39</t>
+          <t>-72,75; -37,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -32,52</t>
+          <t>-77,03; -55,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-56,2; -32,62</t>
+          <t>-56,81; -26,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-71,81; -53,95</t>
+          <t>-55,97; -24,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -41,42</t>
+          <t>-56,9; -16,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-57,77; -38,53</t>
+          <t>-72,52; -45,73</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; -38,25</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-56,1; -25,31</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-59,99; -31,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
